--- a/biology/Botanique/Nuphar_pumila/Nuphar_pumila.xlsx
+++ b/biology/Botanique/Nuphar_pumila/Nuphar_pumila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nénuphar nain ou nénufar nain (Nuphar pumila) est une espèce de plantes herbacées de la famille des Nymphaeaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante aquatique dont les racines sont fixées au sol alors que le limbe des feuilles repose à la surface de l'eau.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nénuphar nain est une plante boréale qui croît dans le nord de l'Europe, de l'Asie et de l'Amérique. En dehors de cette aire de répartition, il est rare et se rencontre seulement dans quelques lacs d'altitude, en particulier en Europe centrale et occidentale. En France, il est présent dans les Vosges, le Jura et le Massif central mais il y est très menacé. On peut par exemple l'observer au lac de la Maix (Vosges), dans la tourbière de Machais (Vosges), au lac de Malpas (Doubs) ou au lac des Salhiens (monts d'Aubrac dans le Massif central).
 </t>
